--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Reln-Vldlr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Reln-Vldlr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>Vldlr</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G2">
+        <v>0.023873</v>
+      </c>
+      <c r="H2">
+        <v>0.071619</v>
+      </c>
+      <c r="I2">
+        <v>0.02747901635872243</v>
+      </c>
+      <c r="J2">
+        <v>0.02747901635872243</v>
+      </c>
+      <c r="K2">
         <v>3</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0.07127766666666667</v>
-      </c>
-      <c r="H2">
-        <v>0.213833</v>
-      </c>
-      <c r="I2">
-        <v>0.04986387490716095</v>
-      </c>
-      <c r="J2">
-        <v>0.04986387490716095</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3081963333333333</v>
+        <v>0.162652</v>
       </c>
       <c r="N2">
-        <v>0.924589</v>
+        <v>0.487956</v>
       </c>
       <c r="O2">
-        <v>0.09210955608663025</v>
+        <v>0.04508921261591652</v>
       </c>
       <c r="P2">
-        <v>0.09210955608663024</v>
+        <v>0.04508921261591652</v>
       </c>
       <c r="Q2">
-        <v>0.02196751551522223</v>
+        <v>0.003882991196</v>
       </c>
       <c r="R2">
-        <v>0.197707639637</v>
+        <v>0.034946920764</v>
       </c>
       <c r="S2">
-        <v>0.004592939382457856</v>
+        <v>0.001239007211074684</v>
       </c>
       <c r="T2">
-        <v>0.004592939382457855</v>
+        <v>0.001239007211074684</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.07127766666666667</v>
+        <v>0.023873</v>
       </c>
       <c r="H3">
-        <v>0.213833</v>
+        <v>0.071619</v>
       </c>
       <c r="I3">
-        <v>0.04986387490716095</v>
+        <v>0.02747901635872243</v>
       </c>
       <c r="J3">
-        <v>0.04986387490716095</v>
+        <v>0.02747901635872243</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +623,25 @@
         <v>2.207039333333333</v>
       </c>
       <c r="N3">
-        <v>6.621117999999999</v>
+        <v>6.621118</v>
       </c>
       <c r="O3">
-        <v>0.65961009678592</v>
+        <v>0.6118195026950627</v>
       </c>
       <c r="P3">
-        <v>0.65961009678592</v>
+        <v>0.6118195026950626</v>
       </c>
       <c r="Q3">
-        <v>0.1573126139215555</v>
+        <v>0.05268865000466667</v>
       </c>
       <c r="R3">
-        <v>1.415813525294</v>
+        <v>0.474197850042</v>
       </c>
       <c r="S3">
-        <v>0.03289071535363344</v>
+        <v>0.01681219812314305</v>
       </c>
       <c r="T3">
-        <v>0.03289071535363344</v>
+        <v>0.01681219812314304</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +655,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.07127766666666667</v>
+        <v>0.023873</v>
       </c>
       <c r="H4">
-        <v>0.213833</v>
+        <v>0.071619</v>
       </c>
       <c r="I4">
-        <v>0.04986387490716095</v>
+        <v>0.02747901635872243</v>
       </c>
       <c r="J4">
-        <v>0.04986387490716095</v>
+        <v>0.02747901635872243</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.83074</v>
+        <v>0.01110166666666667</v>
       </c>
       <c r="N4">
-        <v>2.49222</v>
+        <v>0.033305</v>
       </c>
       <c r="O4">
-        <v>0.2482803471274498</v>
+        <v>0.003077523846767126</v>
       </c>
       <c r="P4">
-        <v>0.2482803471274497</v>
+        <v>0.003077523846767126</v>
       </c>
       <c r="Q4">
-        <v>0.05921320880666667</v>
+        <v>0.0002650300883333334</v>
       </c>
       <c r="R4">
-        <v>0.53291887926</v>
+        <v>0.002385270795</v>
       </c>
       <c r="S4">
-        <v>0.01238022017106965</v>
+        <v>8.456732812967223E-05</v>
       </c>
       <c r="T4">
-        <v>0.01238022017106965</v>
+        <v>8.456732812967222E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +717,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -723,51 +726,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.03568466666666666</v>
+        <v>0.023873</v>
       </c>
       <c r="H5">
-        <v>0.107054</v>
+        <v>0.071619</v>
       </c>
       <c r="I5">
-        <v>0.02496400117994513</v>
+        <v>0.02747901635872243</v>
       </c>
       <c r="J5">
-        <v>0.02496400117994513</v>
+        <v>0.02747901635872243</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3081963333333333</v>
+        <v>1.160026</v>
       </c>
       <c r="N5">
-        <v>0.924589</v>
+        <v>3.480078</v>
       </c>
       <c r="O5">
-        <v>0.09210955608663025</v>
+        <v>0.3215740289328823</v>
       </c>
       <c r="P5">
-        <v>0.09210955608663024</v>
+        <v>0.3215740289328823</v>
       </c>
       <c r="Q5">
-        <v>0.01099788342288889</v>
+        <v>0.027693300698</v>
       </c>
       <c r="R5">
-        <v>0.098980950806</v>
+        <v>0.249239706282</v>
       </c>
       <c r="S5">
-        <v>0.00229942306683086</v>
+        <v>0.008836538001586952</v>
       </c>
       <c r="T5">
-        <v>0.00229942306683086</v>
+        <v>0.008836538001586952</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,7 +779,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -785,46 +788,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.03568466666666666</v>
+        <v>0.023873</v>
       </c>
       <c r="H6">
-        <v>0.107054</v>
+        <v>0.071619</v>
       </c>
       <c r="I6">
-        <v>0.02496400117994513</v>
+        <v>0.02747901635872243</v>
       </c>
       <c r="J6">
-        <v>0.02496400117994513</v>
+        <v>0.02747901635872243</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>2.207039333333333</v>
+        <v>0.06651833333333333</v>
       </c>
       <c r="N6">
-        <v>6.621117999999999</v>
+        <v>0.199555</v>
       </c>
       <c r="O6">
-        <v>0.65961009678592</v>
+        <v>0.01843973190937138</v>
       </c>
       <c r="P6">
-        <v>0.65961009678592</v>
+        <v>0.01843973190937138</v>
       </c>
       <c r="Q6">
-        <v>0.07875746293022221</v>
+        <v>0.001587992171666667</v>
       </c>
       <c r="R6">
-        <v>0.7088171663719999</v>
+        <v>0.014291929545</v>
       </c>
       <c r="S6">
-        <v>0.01646650723446743</v>
+        <v>0.0005067056947880721</v>
       </c>
       <c r="T6">
-        <v>0.01646650723446743</v>
+        <v>0.000506705694788072</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +841,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,10 +856,10 @@
         <v>0.107054</v>
       </c>
       <c r="I7">
-        <v>0.02496400117994513</v>
+        <v>0.04107483513127341</v>
       </c>
       <c r="J7">
-        <v>0.02496400117994513</v>
+        <v>0.04107483513127341</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +868,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.83074</v>
+        <v>0.162652</v>
       </c>
       <c r="N7">
-        <v>2.49222</v>
+        <v>0.487956</v>
       </c>
       <c r="O7">
-        <v>0.2482803471274498</v>
+        <v>0.04508921261591652</v>
       </c>
       <c r="P7">
-        <v>0.2482803471274497</v>
+        <v>0.04508921261591652</v>
       </c>
       <c r="Q7">
-        <v>0.02964467998666667</v>
+        <v>0.005804182402666665</v>
       </c>
       <c r="R7">
-        <v>0.26680211988</v>
+        <v>0.052237641624</v>
       </c>
       <c r="S7">
-        <v>0.006198070878646843</v>
+        <v>0.001852031974397704</v>
       </c>
       <c r="T7">
-        <v>0.006198070878646843</v>
+        <v>0.001852031974397704</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +903,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -909,60 +912,60 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.01641</v>
+        <v>0.03568466666666666</v>
       </c>
       <c r="H8">
-        <v>0.04923</v>
+        <v>0.107054</v>
       </c>
       <c r="I8">
-        <v>0.01147997999223475</v>
+        <v>0.04107483513127341</v>
       </c>
       <c r="J8">
-        <v>0.01147997999223475</v>
+        <v>0.04107483513127341</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.3081963333333333</v>
+        <v>2.207039333333333</v>
       </c>
       <c r="N8">
-        <v>0.924589</v>
+        <v>6.621118</v>
       </c>
       <c r="O8">
-        <v>0.09210955608663025</v>
+        <v>0.6118195026950627</v>
       </c>
       <c r="P8">
-        <v>0.09210955608663024</v>
+        <v>0.6118195026950626</v>
       </c>
       <c r="Q8">
-        <v>0.005057501830000001</v>
+        <v>0.07875746293022222</v>
       </c>
       <c r="R8">
-        <v>0.04551751647000001</v>
+        <v>0.708817166372</v>
       </c>
       <c r="S8">
-        <v>0.00105741586096814</v>
+        <v>0.02513038520329738</v>
       </c>
       <c r="T8">
-        <v>0.00105741586096814</v>
+        <v>0.02513038520329738</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -971,51 +974,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.01641</v>
+        <v>0.03568466666666666</v>
       </c>
       <c r="H9">
-        <v>0.04923</v>
+        <v>0.107054</v>
       </c>
       <c r="I9">
-        <v>0.01147997999223475</v>
+        <v>0.04107483513127341</v>
       </c>
       <c r="J9">
-        <v>0.01147997999223475</v>
+        <v>0.04107483513127341</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>2.207039333333333</v>
+        <v>0.01110166666666667</v>
       </c>
       <c r="N9">
-        <v>6.621117999999999</v>
+        <v>0.033305</v>
       </c>
       <c r="O9">
-        <v>0.65961009678592</v>
+        <v>0.003077523846767126</v>
       </c>
       <c r="P9">
-        <v>0.65961009678592</v>
+        <v>0.003077523846767126</v>
       </c>
       <c r="Q9">
-        <v>0.03621751546</v>
+        <v>0.0003961592744444444</v>
       </c>
       <c r="R9">
-        <v>0.32595763914</v>
+        <v>0.00356543347</v>
       </c>
       <c r="S9">
-        <v>0.007572310713778388</v>
+        <v>0.000126408784618522</v>
       </c>
       <c r="T9">
-        <v>0.007572310713778389</v>
+        <v>0.000126408784618522</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -1033,16 +1036,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.01641</v>
+        <v>0.03568466666666666</v>
       </c>
       <c r="H10">
-        <v>0.04923</v>
+        <v>0.107054</v>
       </c>
       <c r="I10">
-        <v>0.01147997999223475</v>
+        <v>0.04107483513127341</v>
       </c>
       <c r="J10">
-        <v>0.01147997999223475</v>
+        <v>0.04107483513127341</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,33 +1054,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.83074</v>
+        <v>1.160026</v>
       </c>
       <c r="N10">
-        <v>2.49222</v>
+        <v>3.480078</v>
       </c>
       <c r="O10">
-        <v>0.2482803471274498</v>
+        <v>0.3215740289328823</v>
       </c>
       <c r="P10">
-        <v>0.2482803471274497</v>
+        <v>0.3215740289328823</v>
       </c>
       <c r="Q10">
-        <v>0.0136324434</v>
+        <v>0.04139514113466666</v>
       </c>
       <c r="R10">
-        <v>0.1226919906</v>
+        <v>0.372556270212</v>
       </c>
       <c r="S10">
-        <v>0.002850253417488222</v>
+        <v>0.01320860022091749</v>
       </c>
       <c r="T10">
-        <v>0.002850253417488222</v>
+        <v>0.01320860022091749</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,25 +1089,25 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>1.306072666666666</v>
+        <v>0.03568466666666666</v>
       </c>
       <c r="H11">
-        <v>3.918218</v>
+        <v>0.107054</v>
       </c>
       <c r="I11">
-        <v>0.9136921439206591</v>
+        <v>0.04107483513127341</v>
       </c>
       <c r="J11">
-        <v>0.9136921439206592</v>
+        <v>0.04107483513127341</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1113,33 +1116,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.3081963333333333</v>
+        <v>0.06651833333333333</v>
       </c>
       <c r="N11">
-        <v>0.924589</v>
+        <v>0.199555</v>
       </c>
       <c r="O11">
-        <v>0.09210955608663025</v>
+        <v>0.01843973190937138</v>
       </c>
       <c r="P11">
-        <v>0.09210955608663024</v>
+        <v>0.01843973190937138</v>
       </c>
       <c r="Q11">
-        <v>0.4025268069335555</v>
+        <v>0.002373684552222222</v>
       </c>
       <c r="R11">
-        <v>3.622741262402</v>
+        <v>0.02136316097</v>
       </c>
       <c r="S11">
-        <v>0.08415977777637339</v>
+        <v>0.0007574089480423109</v>
       </c>
       <c r="T11">
-        <v>0.08415977777637339</v>
+        <v>0.0007574089480423109</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,25 +1151,25 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>1.306072666666666</v>
+        <v>0.011261</v>
       </c>
       <c r="H12">
-        <v>3.918218</v>
+        <v>0.033783</v>
       </c>
       <c r="I12">
-        <v>0.9136921439206591</v>
+        <v>0.01296197391260307</v>
       </c>
       <c r="J12">
-        <v>0.9136921439206592</v>
+        <v>0.01296197391260308</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,33 +1178,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.207039333333333</v>
+        <v>0.162652</v>
       </c>
       <c r="N12">
-        <v>6.621117999999999</v>
+        <v>0.487956</v>
       </c>
       <c r="O12">
-        <v>0.65961009678592</v>
+        <v>0.04508921261591652</v>
       </c>
       <c r="P12">
-        <v>0.65961009678592</v>
+        <v>0.04508921261591652</v>
       </c>
       <c r="Q12">
-        <v>2.882553747524888</v>
+        <v>0.001831624172</v>
       </c>
       <c r="R12">
-        <v>25.94298372772399</v>
+        <v>0.016484617548</v>
       </c>
       <c r="S12">
-        <v>0.6026805634840406</v>
+        <v>0.0005844451976673234</v>
       </c>
       <c r="T12">
-        <v>0.6026805634840408</v>
+        <v>0.0005844451976673234</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1210,25 +1213,25 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>1.306072666666666</v>
+        <v>0.011261</v>
       </c>
       <c r="H13">
-        <v>3.918218</v>
+        <v>0.033783</v>
       </c>
       <c r="I13">
-        <v>0.9136921439206591</v>
+        <v>0.01296197391260307</v>
       </c>
       <c r="J13">
-        <v>0.9136921439206592</v>
+        <v>0.01296197391260308</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1240,524 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.83074</v>
+        <v>2.207039333333333</v>
       </c>
       <c r="N13">
-        <v>2.49222</v>
+        <v>6.621118</v>
       </c>
       <c r="O13">
-        <v>0.2482803471274498</v>
+        <v>0.6118195026950627</v>
       </c>
       <c r="P13">
-        <v>0.2482803471274497</v>
+        <v>0.6118195026950626</v>
       </c>
       <c r="Q13">
-        <v>1.085006807106667</v>
+        <v>0.02485346993266667</v>
       </c>
       <c r="R13">
-        <v>9.76506126396</v>
+        <v>0.223681229394</v>
       </c>
       <c r="S13">
-        <v>0.226851802660245</v>
+        <v>0.007930388433155189</v>
       </c>
       <c r="T13">
-        <v>0.226851802660245</v>
+        <v>0.007930388433155189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.011261</v>
+      </c>
+      <c r="H14">
+        <v>0.033783</v>
+      </c>
+      <c r="I14">
+        <v>0.01296197391260307</v>
+      </c>
+      <c r="J14">
+        <v>0.01296197391260308</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.01110166666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.033305</v>
+      </c>
+      <c r="O14">
+        <v>0.003077523846767126</v>
+      </c>
+      <c r="P14">
+        <v>0.003077523846767126</v>
+      </c>
+      <c r="Q14">
+        <v>0.0001250158683333333</v>
+      </c>
+      <c r="R14">
+        <v>0.001125142815</v>
+      </c>
+      <c r="S14">
+        <v>3.989078381720935E-05</v>
+      </c>
+      <c r="T14">
+        <v>3.989078381720935E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.011261</v>
+      </c>
+      <c r="H15">
+        <v>0.033783</v>
+      </c>
+      <c r="I15">
+        <v>0.01296197391260307</v>
+      </c>
+      <c r="J15">
+        <v>0.01296197391260308</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.160026</v>
+      </c>
+      <c r="N15">
+        <v>3.480078</v>
+      </c>
+      <c r="O15">
+        <v>0.3215740289328823</v>
+      </c>
+      <c r="P15">
+        <v>0.3215740289328823</v>
+      </c>
+      <c r="Q15">
+        <v>0.013063052786</v>
+      </c>
+      <c r="R15">
+        <v>0.117567475074</v>
+      </c>
+      <c r="S15">
+        <v>0.004168234173998687</v>
+      </c>
+      <c r="T15">
+        <v>0.004168234173998688</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.011261</v>
+      </c>
+      <c r="H16">
+        <v>0.033783</v>
+      </c>
+      <c r="I16">
+        <v>0.01296197391260307</v>
+      </c>
+      <c r="J16">
+        <v>0.01296197391260308</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.06651833333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.199555</v>
+      </c>
+      <c r="O16">
+        <v>0.01843973190937138</v>
+      </c>
+      <c r="P16">
+        <v>0.01843973190937138</v>
+      </c>
+      <c r="Q16">
+        <v>0.0007490629516666667</v>
+      </c>
+      <c r="R16">
+        <v>0.006741566564999999</v>
+      </c>
+      <c r="S16">
+        <v>0.0002390153239646663</v>
+      </c>
+      <c r="T16">
+        <v>0.0002390153239646663</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.7979533333333334</v>
+      </c>
+      <c r="H17">
+        <v>2.39386</v>
+      </c>
+      <c r="I17">
+        <v>0.9184841745974011</v>
+      </c>
+      <c r="J17">
+        <v>0.9184841745974011</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.162652</v>
+      </c>
+      <c r="N17">
+        <v>0.487956</v>
+      </c>
+      <c r="O17">
+        <v>0.04508921261591652</v>
+      </c>
+      <c r="P17">
+        <v>0.04508921261591652</v>
+      </c>
+      <c r="Q17">
+        <v>0.1297887055733333</v>
+      </c>
+      <c r="R17">
+        <v>1.16809835016</v>
+      </c>
+      <c r="S17">
+        <v>0.04141372823277681</v>
+      </c>
+      <c r="T17">
+        <v>0.04141372823277681</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.7979533333333334</v>
+      </c>
+      <c r="H18">
+        <v>2.39386</v>
+      </c>
+      <c r="I18">
+        <v>0.9184841745974011</v>
+      </c>
+      <c r="J18">
+        <v>0.9184841745974011</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.207039333333333</v>
+      </c>
+      <c r="N18">
+        <v>6.621118</v>
+      </c>
+      <c r="O18">
+        <v>0.6118195026950627</v>
+      </c>
+      <c r="P18">
+        <v>0.6118195026950626</v>
+      </c>
+      <c r="Q18">
+        <v>1.761114392831111</v>
+      </c>
+      <c r="R18">
+        <v>15.85002953548</v>
+      </c>
+      <c r="S18">
+        <v>0.5619465309354671</v>
+      </c>
+      <c r="T18">
+        <v>0.561946530935467</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.7979533333333334</v>
+      </c>
+      <c r="H19">
+        <v>2.39386</v>
+      </c>
+      <c r="I19">
+        <v>0.9184841745974011</v>
+      </c>
+      <c r="J19">
+        <v>0.9184841745974011</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.01110166666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.033305</v>
+      </c>
+      <c r="O19">
+        <v>0.003077523846767126</v>
+      </c>
+      <c r="P19">
+        <v>0.003077523846767126</v>
+      </c>
+      <c r="Q19">
+        <v>0.008858611922222225</v>
+      </c>
+      <c r="R19">
+        <v>0.0797275073</v>
+      </c>
+      <c r="S19">
+        <v>0.002826656950201723</v>
+      </c>
+      <c r="T19">
+        <v>0.002826656950201722</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.7979533333333334</v>
+      </c>
+      <c r="H20">
+        <v>2.39386</v>
+      </c>
+      <c r="I20">
+        <v>0.9184841745974011</v>
+      </c>
+      <c r="J20">
+        <v>0.9184841745974011</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.160026</v>
+      </c>
+      <c r="N20">
+        <v>3.480078</v>
+      </c>
+      <c r="O20">
+        <v>0.3215740289328823</v>
+      </c>
+      <c r="P20">
+        <v>0.3215740289328823</v>
+      </c>
+      <c r="Q20">
+        <v>0.9256466134533334</v>
+      </c>
+      <c r="R20">
+        <v>8.33081952108</v>
+      </c>
+      <c r="S20">
+        <v>0.2953606565363792</v>
+      </c>
+      <c r="T20">
+        <v>0.2953606565363792</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.7979533333333334</v>
+      </c>
+      <c r="H21">
+        <v>2.39386</v>
+      </c>
+      <c r="I21">
+        <v>0.9184841745974011</v>
+      </c>
+      <c r="J21">
+        <v>0.9184841745974011</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.06651833333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.199555</v>
+      </c>
+      <c r="O21">
+        <v>0.01843973190937138</v>
+      </c>
+      <c r="P21">
+        <v>0.01843973190937138</v>
+      </c>
+      <c r="Q21">
+        <v>0.05307852581111112</v>
+      </c>
+      <c r="R21">
+        <v>0.4777067323</v>
+      </c>
+      <c r="S21">
+        <v>0.01693660194257633</v>
+      </c>
+      <c r="T21">
+        <v>0.01693660194257633</v>
       </c>
     </row>
   </sheetData>
